--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/4_fold/93.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/4_fold/93.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-6.512870742898833</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>9.096566832165562</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2.868836013904121</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-10.72385873190174</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-6.518198752310659</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-9.258598799151155</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-6.797204700542253</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>8.992543719027742</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2.662814579239471</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-11.31396417984126</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-6.456247225173791</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-9.201686011202586</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-7.144303331652401</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>8.865558252806245</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2.411315396573681</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-12.09050237420257</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-6.375020831124883</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-9.137072196254</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-7.54726696414296</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>8.718134667243664</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>2.119337799625879</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-12.88272720252644</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-6.318818173763443</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-9.159896373421498</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-7.969098012468786</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>8.563808468471191</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1.813689334411011</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-13.62301949093035</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-6.166860800659096</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-9.271963214562772</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-8.396990571940567</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>8.40726467576464</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1.503648846404087</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-14.38532469148555</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-6.064355304767074</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-9.35027612952204</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-8.823145580288873</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>8.251356563293395</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1.194867345463738</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-15.09634945237789</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-5.962635101172906</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-9.464810449276017</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-9.247975005257183</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>8.095933413332624</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.8870463298343179</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-15.87922751034993</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-5.849456919663215</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-9.334588609246335</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-9.688184213571073</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>7.934883594801371</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.5680814991785502</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-16.49717401648861</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-5.743652864773245</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-9.392541544429246</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-10.14323206356277</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>7.768405083493304</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.238364951519744</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-17.17778554594544</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-5.626716380357053</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-9.275136155810756</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-10.63958212663542</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>7.586816225113886</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-0.1212781700322716</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-17.84901860573238</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-5.514846190976383</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-9.018843221024088</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-11.17138545160432</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>7.392256848883191</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-0.5066098584369554</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-18.48168265239599</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-5.426221647653072</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-8.769371945859506</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-11.75910847778478</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>7.177239341467694</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-0.932459595284067</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-19.30576982383783</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-5.302504147677563</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-8.36735339917478</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-12.39291731396765</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>6.945361415874709</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-1.391701983410229</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-19.98352388619582</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-5.088185619755664</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-7.933900749950574</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-13.07328813532549</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>6.696448864196532</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-1.884682047704544</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-20.72203195584071</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-4.906662157310597</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-7.519121532621168</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-13.78549402313838</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>6.435889505548656</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-2.400729022887988</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-21.52747539979297</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-4.640569838346326</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-7.134851113351478</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-14.50661396334147</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>6.172068955420218</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-2.92323490251367</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-22.2343022652802</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-4.403819121156616</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-6.826813314572368</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-15.22131671748276</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>5.91059612231181</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-3.441091045998382</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-23.11020876479181</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-4.161310422150047</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-6.47964366747532</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-15.88915212202032</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>5.666269632365172</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-3.924988253715038</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-23.77117124552936</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-3.868485858730033</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-6.363639360462711</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-16.50223557359127</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>5.441974054818755</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-4.369213534819889</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-24.50991026734864</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-3.597107727368498</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-6.235199223739807</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-17.01945579439146</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>5.252749883385319</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-4.743978662453556</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-25.1212361444881</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-3.349404336378973</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-6.273136707410107</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-17.44074953546667</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>5.098620257591266</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-5.049237807970052</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-25.66371563128896</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-3.119514158019248</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-6.372715219296135</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-17.74253761570628</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>4.98821158226245</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-5.267906073171168</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-26.04428858689358</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-2.924520613237259</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-6.556548938385585</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-17.92856198965248</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>4.920154869452698</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-5.402694786839529</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-26.3606885373355</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-2.770995969006815</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-6.674216824728831</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-17.99846347719935</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>4.894581524616029</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-5.453343695851164</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-26.64553860936598</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-2.605201546806105</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-6.861348171485523</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-17.95673585902358</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>4.909847505445213</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-5.423108883826028</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-26.63474272733169</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-2.577661644132633</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-7.108119001306682</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-17.82315044481911</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>4.958719510641235</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-5.326316158423909</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-26.72593713689816</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-2.533241270524912</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-7.28516387298964</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-17.59740154570316</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>5.041309375981645</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-5.162744024953452</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-26.64591900118262</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-2.48764875704223</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-7.449339793716457</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-17.31172574259404</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>5.14582340108738</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-4.955750321868127</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-26.52523516887821</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-2.457009103547482</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-7.564638638093784</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-16.96030562028286</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>5.274389877793362</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-4.701119892324524</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-26.28737707162532</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-2.519168965086154</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-7.57340934332218</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-16.57498511407431</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>5.41535875447576</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-4.42192607336341</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-26.08776193736721</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-2.553130371866128</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-7.52620240874645</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-16.15267843256768</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>5.569858962869136</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-4.115932975973419</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-25.76813318495782</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-2.617162343735127</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-7.511505817381696</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-15.71147875614028</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>5.731271142538979</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-3.796250476336333</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-25.43867311547778</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-2.699019125377566</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-7.422049874006555</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-15.25461804507062</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>5.898412886105968</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-3.465220373859013</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-25.02209879151219</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-2.724944539982982</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-7.232825107894937</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-14.78439816157037</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>6.070442061046589</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-3.124510541626953</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-24.71781250904078</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-2.839316398920107</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-7.120571237124775</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-14.31248180862675</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>6.243091886557069</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-2.782571489109413</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-24.31152687802062</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-2.889701846195387</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-6.926811822818005</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-13.82973952317535</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>6.419702361760658</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-2.432788230555691</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-24.01774665524701</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-2.979718046755401</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-6.711173223152858</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-13.35648876370495</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>6.592840377715423</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-2.08988229969076</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-23.54222065664956</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-3.05417750749084</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-6.490970444298522</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-12.87802826048835</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>6.767884369894845</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-1.743201515868677</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-23.07379983377015</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-3.122268479633557</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-6.275577936250333</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-12.41599740782796</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>6.936917601302713</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-1.408425255187917</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-22.7556156645692</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-3.221888771861628</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-6.004755752398445</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-11.95981199436813</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>7.103812288344161</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-1.077884456849838</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-22.23249540415114</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-3.326945639354272</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-5.883127431632949</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-11.5222970081831</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>7.263876430118224</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-0.7608717936836421</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-21.86595166102228</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-3.395529490101655</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-5.729628605860565</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-11.10338269962365</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>7.417135544419935</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-0.4573367267986593</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-21.37036452257086</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-3.48260498638173</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-5.512644705356045</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-10.70543910760215</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>7.562722556391388</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-0.1689965284510129</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-20.99159389962129</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-3.566635404089115</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-5.339146834178847</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-10.33692760697474</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>7.697541885887115</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>0.09801789599171702</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-20.58126886978628</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-3.646013710462378</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-5.178537601287147</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-9.990662534608623</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>7.824222396006093</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>0.3489131023693942</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-20.07396656907701</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-3.755550388869362</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-5.073371169085385</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-9.682448722607617</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>7.936981914785158</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>0.5722372957165045</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-19.68636995028649</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-3.856527546903219</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-4.870824643442422</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-9.399318529606921</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>8.040564632598201</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>0.777386511949182</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-19.20147906744118</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-3.919102420510693</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-4.766485079073639</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-9.157430241154691</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>8.12905906711782</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>0.9526528523769473</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-18.73905394414793</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-4.011516744701812</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-4.708345114261838</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-8.945131707001327</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>8.206728138445994</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>1.10647918021335</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-18.34739075569852</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-4.090687130856972</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-4.610489243694518</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-8.770396801384955</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>8.270654617740645</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>1.233087821120826</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-17.81564375229585</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-4.15019455997188</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-4.532287890268273</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-8.628566863125101</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>8.32254286857151</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>1.335854327101581</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-17.44135179013987</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-4.205381224713786</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-4.505808432283554</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-8.518401293902503</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>8.362846761803659</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>1.415677605369142</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-16.98292078092138</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-4.287003578381232</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-4.488129210521265</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-8.44131473183168</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>8.391048754397717</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>1.471532643729046</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-16.56878730444591</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-4.32472991500693</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-4.579708104245367</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-8.386475712610897</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>8.411111519844553</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>1.511267656420133</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-16.09811582998469</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-4.385686158709334</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-4.585059776608822</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-8.360240595628154</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>8.42070959446321</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>1.530276980822242</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-15.74593640640816</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-4.407590677941562</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-4.662198014249808</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-8.345747553357807</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>8.426011850262324</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>1.540778284943423</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-15.34548344990987</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-4.454465504163777</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-4.805885987559451</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-8.35135907671102</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>8.42395888362589</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>1.536712312305244</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-14.96160470827966</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-4.532373458397071</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-4.976742475381297</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-8.362527730735648</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>8.419872849826657</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>1.528619778636394</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-14.72592480702446</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-4.547547492481552</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-5.121004662463843</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-8.383671407534546</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>8.412137470267949</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>1.513299587322285</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-14.39925880600715</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-4.569401481302209</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-5.326786472564419</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-8.408477530110176</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>8.403062190914818</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>1.495325677333288</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-14.0754593290367</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-4.621843764838641</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-5.555536833581107</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-8.436069991101638</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>8.392967534211643</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>1.475332854645121</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-13.87383355231918</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-4.656931751286422</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-5.698699811441239</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-8.468947791923611</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>8.380939244580068</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>1.451510403925196</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-13.63759664876105</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-4.705829450706274</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-5.835247846637531</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-8.500779410070892</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>8.369293699168121</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>1.428445991595577</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-13.36572518323655</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-4.779008255436985</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-6.038512959802013</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-8.542224164265582</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>8.354131203663558</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>1.398416135896028</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-13.39525989071457</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-4.814640479268405</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-6.208851014617466</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-8.582911808007776</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>8.339245695779152</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>1.36893486392146</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-13.17061588061607</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-4.858389875279858</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-6.242227600320137</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-8.638427513204057</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>8.318935365875467</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>1.328709541115306</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-13.08397711590132</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-4.918463079330879</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-6.427662555530596</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-8.701562004904829</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>8.29583771539601</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>1.282963831862637</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-13.11579417427921</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-4.986771912100531</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-6.425477261972006</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-8.785500576935407</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>8.26512892617037</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>1.222143994595331</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-13.12630023397701</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-5.041747343154723</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-6.485779551791481</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-8.889914978480432</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>8.226929088222215</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>1.146487871829529</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-13.16713348410417</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-5.103521185483691</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-6.557717053260747</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-9.020556184155193</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>8.179134216899074</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>1.051828447951683</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-13.26955398073565</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-5.169687031782302</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-6.427357401925568</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-9.184320164796915</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>8.119221432554275</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>0.9331690710772776</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-13.36098839942452</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-5.253921227870775</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-6.392336924221614</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-9.377754674144148</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>8.048453733833533</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>0.7930111544511275</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-13.55063183391774</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-5.344860229717508</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-6.290737179854968</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-9.615558666727985</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>7.961453532274083</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>0.6207041949618028</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-13.82434185988935</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-5.429954271170087</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-6.232134562803286</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-9.885625233204953</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>7.862650120848258</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>0.4250205631448875</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-14.1144857180348</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-5.495722501115353</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-6.06978956370664</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-10.20858346076896</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>7.744496381762292</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>0.1910129267339997</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-14.44802141412175</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-5.610540850082587</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-5.907152535891202</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-10.57394386016952</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>7.610829877494146</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>-0.07371828679396961</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-14.95320891746944</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-5.712758902485838</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-5.723092412514151</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-11.00019252527803</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>7.454887500850434</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>-0.3825676491331578</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-15.3557132726932</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-5.779345559425071</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-5.582951439710268</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-11.48616030976773</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>7.277096982101687</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-0.7346880254370319</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-15.91999283336698</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-5.886916521985212</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-5.341532282252563</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-12.04157411650481</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>7.073899749750799</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-1.137127291731172</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-16.56422260264618</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-5.983205120519223</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-5.177996199729838</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-12.67546176460479</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>6.841992990946899</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-1.596426785045781</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-17.30174799343141</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-6.064257557413543</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-5.065115615641822</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-13.38457576284576</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>6.582564795039541</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-2.110233452632086</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-18.09105195602033</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-6.1787569849307</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-4.963479777838021</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-14.19273682476141</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>6.286900392961121</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-2.695807201177361</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-18.88802262510425</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-6.288222423741043</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-4.801735242286753</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-15.08261593635983</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>5.961339576124487</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-3.340591850781294</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-19.88786440125779</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-6.38869966204731</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-4.767764755481823</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-16.09035590652618</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>5.592659557040797</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-4.070775597187528</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-20.97243845456885</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-6.481294984515941</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-4.749622881479652</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-17.19776711456403</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>5.1875149786775</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-4.87317868591671</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-22.14365127259465</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-6.561995779447773</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-4.747371963489874</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-18.43455708839632</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>4.735037390555499</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-5.769326465449025</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-23.45690873481906</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-6.641035697736992</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-4.76961208321979</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-19.79213759147595</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>4.238368784962312</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-6.752996109536983</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-24.88626721365211</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-6.74098070998696</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-4.913989113056917</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-21.28312011574885</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>3.692895268206156</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-7.833325596934514</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-26.38914999647371</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-6.764651308521956</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-5.056118506125824</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-22.91352961717803</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>3.096412620006828</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-9.014680463441751</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-28.00262717151062</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-6.840359118933415</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-5.246458887567653</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-24.67062714502649</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>2.453581364646241</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-10.28783037678074</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-29.7022178082774</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-6.85923015673659</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-5.541450549426411</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-26.58019356564903</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>1.754969614354668</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-11.67145552245353</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-31.56359723591622</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-6.854280247321162</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-5.830903509292827</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-28.59896811125244</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>1.01640425024008</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-13.13421020570274</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-33.44028743417496</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-6.842616420106043</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-6.159557223129928</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-30.75868882655362</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>0.2262739605769234</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-14.69909103783789</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-35.53687127329817</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-6.811384483918293</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-6.570221788623791</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-33.02131901364798</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-0.6015055909472474</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-16.33853755743132</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-37.6139238040263</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-6.783585716431446</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-6.978057941133413</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-35.38032554528902</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-1.464544270419691</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-18.04781602019398</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-39.80792417600251</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-6.707657560290843</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-7.49854827344345</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-37.83959600060276</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-2.364264342302279</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-19.8297432709219</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-41.99932973237232</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-6.617035408975682</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-7.970381371248481</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-40.31601113682144</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-3.270256767639471</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-21.62409313830165</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-44.23817331820949</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-6.488841411555445</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-8.469868604356511</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-42.90054611636502</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-4.215804660736636</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-23.49678400097486</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-46.58890191135417</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-6.348315922793432</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-9.01540450082979</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-45.36489734205073</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-5.117383524145959</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-25.28239265370594</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-48.83087693696764</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-6.182215418837388</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-9.452010403972624</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-48.02655023648257</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-6.091144880214135</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-27.21096127222409</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-51.21152289364399</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-5.971186337872005</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-9.976339765507211</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-40.02962856516182</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>-3.165484172416045</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-21.41658732800283</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-40.33032062460618</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>-3.275491870330384</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-21.63446144332988</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-40.52601901578989</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>-3.347087806516526</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-21.77625971339016</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-40.58745966350946</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-3.369565766947158</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-21.82077810470305</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-40.51047478966666</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>-3.341400976824925</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-21.76499674714722</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-40.30708373235727</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-3.266990691324491</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-21.61762455927301</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-40.00451677392412</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-3.156297064683073</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-21.3983919379739</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-39.63458343532096</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-3.020957558090518</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-21.13034728449326</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-39.24208209212613</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-2.877361583946957</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-20.84595040660009</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-38.85337851430941</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-2.735155016052551</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-20.56430529665683</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-38.50733062501724</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-2.608553962005795</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-20.31356745582511</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-38.21394808682613</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>-2.501220440481125</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-20.10098964090407</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-37.99855333133428</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>-2.422418621642728</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-19.94491986677838</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-37.86105832144639</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>-2.372116297263342</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-19.845294343921</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-37.80421915311238</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>-2.351321780536351</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-19.80411007207964</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-37.8198145560906</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>-2.357027333196603</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-19.81541011982059</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-37.89446002765039</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>-2.384336256821646</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-19.86949640367296</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-38.02124827858107</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>-2.430721530956395</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-19.9613640707355</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-38.17916342096469</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>-2.488494527395137</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-20.07578552239323</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-38.36788274145089</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>-2.557537181986705</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-20.21252692844176</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-38.56797024243315</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>-2.630738866810589</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-20.35750544016257</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-38.78179291884408</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>-2.70896554308968</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-20.51243612421845</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-38.99487060151074</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>-2.786919664626497</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-20.66682700401994</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-39.20141860734847</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>-2.862484914580198</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-20.81648663962062</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-39.38564046103216</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>-2.929882178301434</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>-20.94996929117254</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-39.52782405424581</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>-2.981899813218444</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-21.05299204688708</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-39.61036317357807</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>-3.012096614964387</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-21.11279787494129</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-39.60681974896157</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>-3.010800258866671</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-21.11023039608941</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-39.50648492551381</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>-2.97409292788984</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-21.03753023588042</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-39.2921385064433</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>-2.895674641215757</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-20.88222006069721</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-38.97039952743454</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>-2.777966962218629</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-20.64909586198278</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-38.54529825018616</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>-2.622444355546034</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-20.34107786883713</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-38.03744837221918</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>-2.436648308705092</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-19.97310226254588</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-37.47061627366482</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>-2.229273712977017</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-19.56238958114116</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-36.87282977422383</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>-2.010574500336384</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-19.12924809758878</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-36.27737504528914</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>-1.792728362119921</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-18.69779615794103</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-35.70801017260663</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>-1.584427155121529</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-18.28524829032117</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-35.19372146814901</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>-1.396275474145076</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-17.91260726776326</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-34.74216385856879</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>-1.231073861580337</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-17.58541966298153</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-34.36795519399482</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>-1.094170233977241</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-17.31427721282032</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-34.0667539950425</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>-0.9839762682070402</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-17.09603418745262</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-33.8372472717735</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>-0.9000116090492981</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-16.92973922646748</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-33.669529022137</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>-0.8386521618632747</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-16.80821468294852</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-33.55103257911369</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>-0.7953004320832504</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-16.72235505718784</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-33.46854896493665</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>-0.7651239368075263</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-16.6625894468122</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-33.40387439691537</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>-0.741462851926294</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-16.61572783590756</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-33.3484746330498</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>-0.7211949389687317</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-16.57558652135526</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-33.29017405135544</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>-0.6998657665552156</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-16.5333433451198</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-33.22848091596333</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>-0.6772954339227411</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-16.48864200741189</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-33.15838258300925</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>-0.6516500735159501</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-16.43785046903043</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-33.08210729222654</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>-0.6237448831951352</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-16.38258325801294</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-33.00184713167293</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>-0.5943818347892253</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-16.3244287077766</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-32.92103958193204</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>-0.5648185249448586</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-16.26587753271705</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-32.84485339004142</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>-0.5369459313079242</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-16.2106748805786</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-32.77708015499531</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>-0.5121512041661205</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-16.16156805130014</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-32.72590654787354</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>-0.4934294237378572</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-16.12448890660854</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-32.69493718733542</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>-0.4820993338612836</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-16.10204926506312</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-32.69218285901992</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>-0.4810916673540664</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-16.10005354610011</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-32.71861007028986</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>-0.4907600193533645</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-16.11920205732665</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-32.77624667192992</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>-0.5118462757505062</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-16.16096412984691</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-32.86104203651479</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>-0.5428685211301332</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-16.22240477805326</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-32.96687953028928</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>-0.5815889950417779</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-16.29909203865854</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-33.08718028000418</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>-0.6256008274724704</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-16.38625902093851</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-33.21271285537077</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>-0.6715267147568038</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-16.4772168561845</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-33.33718808230157</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>-0.717065772846085</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-16.56740856260268</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-33.44972048765308</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>-0.7582355692030545</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-16.64894679246777</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-33.54606370374691</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>-0.7934825771610629</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-16.71875473156996</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-33.61951718300994</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>-0.8203554123548356</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-16.77197732694444</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-33.67019301300002</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>-0.8388950818339993</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-16.80869579449545</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-33.69802380656584</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>-0.8490769321195122</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-16.82886130714054</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-33.70669535755774</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>-0.8522494048603224</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-16.83514450099795</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-33.70274105471874</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>-0.8508027296372417</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-16.83227930983069</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-33.69260318708386</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>-0.847093807351985</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-16.82493365878047</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-33.69067020204352</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>-0.8463866279379902</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-16.82353306507546</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-33.7057897178856</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>-0.8519180780682012</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-16.83448829663147</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-33.75687985382764</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>-0.8706093207019429</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-16.87150696014682</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-33.85131891581671</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>-0.9051596969965647</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-16.93993519573511</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-34.00101976598634</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>-0.9599275080701621</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-17.0484047720674</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-34.20746905642326</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>-1.035456643156007</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-17.19799288090192</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-34.47318274390146</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>-1.132667560922906</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-17.39052252301011</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-34.79991511975626</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>-1.252202065985281</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-17.62726481500681</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-35.18421377888258</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>-1.392797101584733</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-17.90571822855299</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-35.63278929039779</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>-1.556907718452101</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-18.23074507797944</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-36.13722488048919</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>-1.741454653660683</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-18.5962467747443</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-36.7115276641867</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>-1.951562387323824</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-19.0123725319697</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-37.34917232413038</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>-2.184843642763006</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-19.47439426421949</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-38.06262856201187</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>-2.445860439937487</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-19.99134721249564</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-38.84912452466698</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>-2.733598700902828</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-20.56122295975819</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-39.71304356228792</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>-3.049662067154216</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-21.18719757439771</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-40.65360350698123</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>-3.393764383847722</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-21.86870431668008</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-41.66002382725048</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>-3.761961611175948</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-22.59793187703204</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-42.73559941396697</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>-4.155459179572614</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-23.37726765282953</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-43.85307844675089</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>-4.564287055144909</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-24.18696564124403</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-45.01488255601685</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>-4.989331187417425</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-25.02878049647295</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-46.19477009786071</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>-5.420991113907981</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-25.88369816486649</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-47.37746545847011</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>-5.853678276299374</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-26.74065031009547</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-48.56065146711525</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>-6.286544941471776</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-27.5979579668964</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-49.70491629425644</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>-6.705172356079108</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-28.42706428707631</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-50.86221832165455</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>-7.12856940906719</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-29.2656170438451</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-51.94088070053808</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>-7.523196275327134</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-30.04718943378475</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-53.11343582750522</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>-7.952173649833342</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-30.89679421361241</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-16.70014598721112</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>5.369568853843961</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-4.512614582260623</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-15.92826069678541</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>5.651961824282155</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-3.95332537091191</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-15.36483154824106</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>5.858091456317437</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-3.545078383893351</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-15.10740154750763</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>5.952271800843664</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-3.358550898691123</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-15.09213615205724</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>5.957856620789865</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-3.347489966337216</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-15.27302397295955</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>5.891679107506094</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-3.478556859242046</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-15.56404694915664</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>5.785208827875898</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-3.689424993225864</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-15.87565778437433</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>5.671206513711681</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-3.915210586549577</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-16.10970493043702</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>5.585580748304529</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-4.084795426892398</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-16.17647009171777</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>5.561154823300236</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-4.133171830564612</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-16.00738987162129</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>5.623012545150402</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-4.010660436546114</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-15.56295799822796</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>5.785607218791268</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-3.688635966004258</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-14.84792590529825</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>6.047200539956508</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-3.170541191684728</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-13.90463044879922</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>6.392303639167918</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-2.487052364422329</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-12.80878301187143</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>6.793217630792817</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>-1.693028101542773</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-11.65349856699571</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>7.215876554516526</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>-0.8559372357463578</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-10.5324945524775</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>7.625994038888256</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>-0.04368513174157478</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-9.529331563180293</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>7.992999577010452</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>0.683182246219231</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-8.702345148710359</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>8.295551203516244</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>1.282396385006478</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-8.092005188764738</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>8.518843079140812</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>1.724633799149096</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-7.709568149398095</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>8.65875704419742</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>2.001738328527987</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-7.556137220968359</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>8.714889498298817</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>2.112910628379226</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-7.610521819062597</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>8.69499298207754</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>2.073504878127311</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-7.844086396104324</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>8.609543763757062</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>1.904269695499827</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-8.218073440249162</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>8.472721215625313</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>1.633287826083658</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-8.689500696117124</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>8.300250325479633</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>1.291703161350298</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-9.215524466134974</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>8.107805389970483</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>0.9105591971717582</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-9.753744737900423</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>7.910898384254555</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>0.520577945991849</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-10.27055056144895</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>7.721825819377546</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>0.1461130804760658</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-10.74016135944701</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>7.550019477371232</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>-0.1941554232912741</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-11.14950942567953</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>7.400260157171236</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>-0.4907590248497876</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-11.49504866753944</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>7.273845190955253</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>-0.7411283121868678</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-11.7835484221051</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>7.168298027830078</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>-0.9501681814611398</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-12.02873953794129</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>7.078595259316573</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>-1.127827669867898</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-12.24935964952014</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>6.997881752504184</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>-1.287683609271213</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-12.46692520619664</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>6.918285749604543</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>-1.445326292866247</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-12.69995763808633</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>6.833031215717169</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>-1.614175896125787</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-12.96862474157118</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>6.734739795537018</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>-1.808845511270945</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-13.2817731757964</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>6.620174953291923</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>-2.035745211246206</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-13.64737198555149</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>6.486421226985692</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>-2.300649171088708</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-14.05700432053606</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>6.336557907527917</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>-2.597458746835509</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-14.49820691534041</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>6.175144660174643</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>-2.917143361057185</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-14.94758232081267</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>6.010741403411984</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>-3.242749794090094</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-15.37844722090504</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>5.853110184753144</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-3.554943967446596</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-15.76662549134005</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>5.711095799704758</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-3.836208452503134</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-16.08755320744993</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>5.593684919911686</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-4.068744829953783</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-16.3318296405102</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>5.50431678659502</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-4.245741561582144</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-16.48880541367896</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>5.446887456846413</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-4.359482369271315</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-16.568681552026</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>5.417664902336389</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-4.41735866640486</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-16.5803884023692</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>5.413381970294673</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-4.425841163968999</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-16.54802652734464</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>5.425221509317492</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-4.402392540469164</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-16.49368685711339</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>5.445101588753613</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-4.363019343848424</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-16.44150335985764</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>5.464192835834868</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-4.325208457454299</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-16.41438305452293</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>5.474114755163628</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-4.305557747212337</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-16.42189796083465</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>5.4713654389864</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-4.311002864610707</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-16.47697006038557</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>5.451217401482181</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-4.35090676161095</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-16.56947758532477</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>5.41737367485661</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-4.41793545267272</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-16.69938003811552</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>5.369849075067235</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-4.512059594270927</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-16.84602330562104</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>5.316199875608071</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-4.618313720952785</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-16.99883687542825</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>5.260293281148519</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-4.729038697838563</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-17.13952105618102</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>5.208824203826777</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-4.830975015939737</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-17.25511942107666</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>5.166532731187527</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-4.914734765137737</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-17.33562429487286</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>5.137080154842248</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-4.973066628607207</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-17.36737398745554</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>5.125464581764052</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-4.996071679675535</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-17.34933268129823</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>5.13206496410006</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-4.982999390285409</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-17.27215489797884</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>5.160300329838638</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-4.927078255238856</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-17.14562989254172</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>5.206589296040327</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-4.835401329425448</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-16.96979077088464</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>5.270919750966598</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-4.707992600569383</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-16.75939016104509</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>5.347894469790205</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-4.555541462292674</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-16.52344313731217</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>5.434215302334175</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-4.384580017035849</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-16.27583429970732</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>5.524802590400536</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-4.205168706540984</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-16.03132978277678</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>5.614254167827915</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-4.028006710916142</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-15.79850392857544</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>5.699433125606038</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-3.859306788799425</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-15.59307323722084</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>5.774589607884384</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-3.710456731958511</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-15.41510490150939</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>5.83969903228834</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-3.581505226651026</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-15.27643863397253</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>5.89042985936203</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>-3.481031039134656</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-15.17006023502876</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>5.929348222544756</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>-3.403951851867089</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-15.09622467406329</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>5.95636084170415</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>-3.350452409431687</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-15.04338908165875</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>5.975690656728544</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>-3.312169030834358</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-15.00293922516643</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>5.990489170536684</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>-3.28286005368792</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-14.96576440577592</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>6.00408951738019</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>-3.255924088361409</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-14.91915811957995</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>6.021140350921416</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-3.222154312756467</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-14.85782532056312</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>6.04357885508063</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-3.177714065977033</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-14.76923482662388</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>6.075989542324446</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-3.113523559819122</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-14.65661023476445</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>6.117193064964489</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-3.031918533864049</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-14.51735224459423</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>6.168140372795335</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-2.931015598593248</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-14.36399775213262</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>6.224244862922865</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-2.819898682375903</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-14.20588873345318</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>6.282088788687183</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-2.705336752693877</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-14.05848332528333</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>6.336016816061279</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-2.598530397518506</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-13.93717791140501</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>6.380396203232188</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-2.51063546014651</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-13.85315446799991</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>6.411136042511318</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-2.449754127156056</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-13.82393708233572</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>6.421825175247089</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-2.428583923774172</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-13.8546883518263</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>6.410574873623383</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-2.450865541878171</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-13.96011596838718</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>6.372004352619641</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-2.527255815474637</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-14.14217122802463</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>6.305399733784943</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-2.659168605946852</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-14.40067592293183</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>6.210826214153804</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-2.846474788274602</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-14.73915335387341</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>6.086994799906791</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-3.091727260058653</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-15.13204554527208</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>5.943255834587412</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-3.376407337005367</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-15.59338300147598</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>5.774476281138521</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-3.710681179565051</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-16.058585628496</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>5.604282661271272</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-4.047755630407196</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-16.58997835801995</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>5.409873500712242</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-4.432789811390194</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>